--- a/input/industry/BAT_Consumption.xlsx
+++ b/input/industry/BAT_Consumption.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEF641F-37B9-4A59-BF6A-CEBBC1CEB34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CBD716-3460-415B-8A94-6A0B756BED28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31695" yWindow="3480" windowWidth="19185" windowHeight="10200" tabRatio="788" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="788" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="steel" sheetId="9" r:id="rId1"/>
@@ -480,8 +480,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -915,9 +915,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -957,13 +957,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,13 +978,19 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <f>(4.7+7)/2</f>
         <v>5.85</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1000,9 +1006,9 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1046,9 +1052,9 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1091,9 +1097,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1136,9 +1142,9 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1181,9 +1187,9 @@
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1232,9 +1238,9 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1277,9 +1283,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1326,9 +1332,9 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1370,9 +1376,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1419,9 +1425,9 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1465,9 +1471,9 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1509,9 +1515,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1558,9 +1564,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1602,14 +1608,14 @@
       <selection activeCell="B92" sqref="B91:B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="56.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="56.453125" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1718,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -1780,7 +1786,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>13</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -1839,7 +1845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -1848,7 +1854,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1865,10 +1871,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>39</v>
       </c>
@@ -1877,7 +1883,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1894,12 +1900,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1914,10 +1920,10 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>50</v>
       </c>
@@ -1926,7 +1932,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1941,7 +1947,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>96</v>
       </c>
@@ -1967,7 +1973,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>23</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>98</v>
       </c>
@@ -2023,7 +2029,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>60</v>
       </c>
@@ -2060,7 +2066,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2085,7 +2091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>63</v>
       </c>
@@ -2094,7 +2100,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2114,10 +2120,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>69</v>
       </c>
@@ -2143,7 +2149,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>74</v>
       </c>
@@ -2183,7 +2189,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B67" s="11" t="s">
         <v>13</v>
       </c>
@@ -2217,7 +2223,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>83</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>92</v>
       </c>
@@ -2272,7 +2278,7 @@
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>95</v>
       </c>
@@ -2295,7 +2301,7 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2340,9 +2346,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2386,9 +2392,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2429,12 +2435,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2478,12 +2484,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2497,7 +2503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2528,9 +2534,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2572,13 +2578,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8271C493-5F7B-4D46-BF14-635221FA7353}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2623,9 +2629,9 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
